--- a/430300/服务器配置信息.xlsx
+++ b/430300/服务器配置信息.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20341"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F858B7D-BFDE-404F-99D6-87046EE1D576}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3649A30B-1D0A-45AC-8114-9211F9902E58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="服务配置信息" sheetId="1" r:id="rId1"/>
@@ -75,41 +75,41 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>账户密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\oracle\Database</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oracle Weblogic 12c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oracle Database 12c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weblogic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部署路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\oracle\Middleware</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e:\oracle\WBJH_XT_war_exploded</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>sys/Sunway4303(管理员)
-wbjh_tax/wbjh(税务)
+wbjh_tax/wbjh_sunway(税务)
 wbjh_bdc/WbjhBdc(国土)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E:\oracle\Database</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Oracle Weblogic 12c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Oracle Database 12c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>weblogic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部署路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E:\oracle\Middleware</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e:\oracle\WBJH_XT_war_exploded</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -586,7 +586,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="11"/>
     </row>
@@ -608,10 +608,10 @@
     </row>
     <row r="9" spans="1:2" ht="49.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -619,12 +619,12 @@
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="11"/>
     </row>
@@ -641,7 +641,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -657,15 +657,15 @@
         <v>5</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/430300/服务器配置信息.xlsx
+++ b/430300/服务器配置信息.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20341"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3649A30B-1D0A-45AC-8114-9211F9902E58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85540A0-A264-4945-BBCC-5B49E854B54F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="服务配置信息" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>服务器</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,11 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>192.168.6.100(专线)
-85.32.117.150(内网)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>远程VNC端口5900</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -75,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>账户密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>E:\oracle\Database</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,9 +98,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sys/Sunway4303(管理员)
-wbjh_tax/wbjh_sunway(税务)
-wbjh_bdc/WbjhBdc(国土)</t>
+    <t>wbjh_tax/wbjh_sunway(国土)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wbjh_xt/wbjh(税务)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys/Sunway4303(管理员)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85.32.117.150(内网)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192.168.6.100(专线)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户/密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -162,7 +171,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -211,11 +220,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -248,6 +294,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -530,11 +585,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="35.25" style="2" bestFit="1" customWidth="1"/>
@@ -544,7 +599,7 @@
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -552,126 +607,146 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="33" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="14"/>
+      <c r="B3" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="5" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="11"/>
+    </row>
+    <row r="8" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="B8" s="9">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="13"/>
+      <c r="B11" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14"/>
+      <c r="B12" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11"/>
+    </row>
+    <row r="15" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="9">
+        <v>8080</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="B16" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="B17" s="8">
+        <v>1234567890</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="11"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="9">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="11"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="9">
-        <v>8080</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="8">
-        <v>1234567890</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>20</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A11:B11"/>
+  <mergeCells count="4">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A2:A3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
